--- a/데이터베이스_외부.xlsx
+++ b/데이터베이스_외부.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정성진\Desktop\학교\maze of memorries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정성진\Desktop\school\maze of memorries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="계정" sheetId="1" r:id="rId1"/>
@@ -523,10 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STAGE_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,10 +707,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAP_INFO_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,10 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAP_INFO_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5+5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,6 +772,18 @@
   </si>
   <si>
     <t>별 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE_MAP_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI_MAP_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI_MAP_7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1152,7 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1296,13 +1296,14 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
@@ -1310,7 +1311,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -1319,7 +1320,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>120</v>
@@ -1327,14 +1328,14 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1348,15 +1349,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
@@ -1364,7 +1365,7 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -1373,7 +1374,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>120</v>
@@ -1385,10 +1386,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1403,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1507,7 +1508,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>65</v>
@@ -1532,14 +1533,14 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
@@ -1547,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -1558,7 +1559,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -1569,7 +1570,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -1580,7 +1581,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -1591,7 +1592,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -1599,10 +1600,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1613,10 +1614,10 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1646,18 +1647,18 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -1668,7 +1669,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -1679,7 +1680,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -1690,7 +1691,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -1701,7 +1702,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -1759,7 +1760,7 @@
         <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -1773,7 +1774,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -1787,7 +1788,7 @@
         <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -1801,7 +1802,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1809,13 +1810,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2003,12 +2004,12 @@
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
@@ -2016,7 +2017,7 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>104</v>
@@ -2024,7 +2025,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -2060,7 +2061,7 @@
         <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2068,28 +2069,28 @@
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" t="s">
         <v>150</v>
-      </c>
-      <c r="J4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2118,7 +2119,7 @@
         <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2147,12 +2148,12 @@
         <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>96</v>
@@ -2179,7 +2180,7 @@
         <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2208,7 +2209,7 @@
         <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2237,7 +2238,7 @@
         <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2266,12 +2267,12 @@
         <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>100</v>
@@ -2298,7 +2299,7 @@
         <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2327,7 +2328,7 @@
         <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2356,7 +2357,7 @@
         <v>59</v>
       </c>
       <c r="L13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2385,7 +2386,7 @@
         <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2415,12 +2416,12 @@
         <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3">
         <v>5</v>
@@ -2430,10 +2431,10 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -2444,14 +2445,14 @@
         <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -2459,22 +2460,22 @@
         <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3">
         <v>60</v>
@@ -2484,10 +2485,10 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">

--- a/데이터베이스_외부.xlsx
+++ b/데이터베이스_외부.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="계정" sheetId="1" r:id="rId1"/>
@@ -1349,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/데이터베이스_외부.xlsx
+++ b/데이터베이스_외부.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697"/>
   </bookViews>
   <sheets>
     <sheet name="계정" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="189">
   <si>
     <t>계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -784,6 +784,10 @@
   </si>
   <si>
     <t>MULTI_MAP_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제(사진을 구글에서 가져옴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1162,9 +1166,10 @@
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1200,7 +1205,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1219,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1228,7 +1233,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1242,7 +1247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
@@ -1256,7 +1261,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -1282,6 +1287,9 @@
       </c>
       <c r="F11" t="s">
         <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/데이터베이스_외부.xlsx
+++ b/데이터베이스_외부.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="190">
   <si>
     <t>계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -788,6 +788,10 @@
   </si>
   <si>
     <t>삭제(사진을 구글에서 가져옴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기 100으로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,7 +1161,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1203,6 +1207,9 @@
       </c>
       <c r="F5" t="s">
         <v>116</v>
+      </c>
+      <c r="G5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">

--- a/데이터베이스_외부.xlsx
+++ b/데이터베이스_외부.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="계정" sheetId="1" r:id="rId1"/>
-    <sheet name="싱글플레이" sheetId="2" r:id="rId2"/>
-    <sheet name="스테이지 클리어 정보" sheetId="3" r:id="rId3"/>
-    <sheet name="스테이지 정보" sheetId="4" r:id="rId4"/>
-    <sheet name="아이템" sheetId="6" r:id="rId5"/>
-    <sheet name="멀티 플레이" sheetId="5" r:id="rId6"/>
-    <sheet name="계급" sheetId="13" r:id="rId7"/>
-    <sheet name="계급 계산" sheetId="18" r:id="rId8"/>
-    <sheet name="멀티 게임 정보" sheetId="14" r:id="rId9"/>
-    <sheet name="멀티 맵 정보_5" sheetId="15" r:id="rId10"/>
-    <sheet name="멀티 맵 정보_7" sheetId="16" r:id="rId11"/>
+    <sheet name="스테이지 클리어 정보" sheetId="3" r:id="rId2"/>
+    <sheet name="스테이지 정보" sheetId="4" r:id="rId3"/>
+    <sheet name="멀티 플레이" sheetId="5" r:id="rId4"/>
+    <sheet name="멀티 게임 정보" sheetId="14" r:id="rId5"/>
+    <sheet name="멀티 맵 정보_5" sheetId="15" r:id="rId6"/>
+    <sheet name="멀티 맵 정보_7" sheetId="16" r:id="rId7"/>
+    <sheet name="싱글플레이" sheetId="2" r:id="rId8"/>
+    <sheet name="계급" sheetId="13" r:id="rId9"/>
+    <sheet name="계급 계산" sheetId="18" r:id="rId10"/>
+    <sheet name="아이템" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="194">
   <si>
     <t>계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,267 +531,283 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOLLAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENG_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300~599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600~899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900~1199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200~1499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_SIZE(pri)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_SCORE_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_SCORE_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_LEVEL_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_LEVEL_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅂㅂㅂㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_SCORE_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_SCORE_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_LEVEL_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_LEVEL_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIMIT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI_PLAY_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR_LEVEL(PRI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 번호(pri)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE_MAP_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI_MAP_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI_MAP_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제(사진을 구글에서 가져옴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP_SIZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOLLAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRAW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIN_RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENG_LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEVEL_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CALC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D_WIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D_LOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300~599</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600~899</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900~1199</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200~1499</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제한 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP_SIZE(pri)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGH_SCORE_WIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGH_SCORE_LOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGH_LEVEL_WIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGH_LEVEL_LOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅂㅂㅂㅂ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW_SCORE_WIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW_SCORE_LOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW_LEVEL_WIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW_LEVEL_LOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MULTI_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOVE_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIMIT_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MULTI_PLAY_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KR_LEVEL(PRI)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 번호(pri)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SINGLE_MAP_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MULTI_MAP_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MULTI_MAP_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제(사진을 구글에서 가져옴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크기 100으로 변경</t>
+    <t>퍼팩트 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_PERFECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기 100으로 변경, 이름_번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,6 +828,24 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -859,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,7 +909,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1255,7 @@
         <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -1227,16 +1273,17 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1269,34 +1316,36 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G11" t="s">
-        <v>188</v>
+      <c r="G11" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1308,49 +1357,375 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E5"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>171</v>
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="6">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-24</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-20</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-16</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-12</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-8</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-4</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="6">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1362,292 +1737,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="F5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="F6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1662,62 +1755,67 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1726,12 +1824,205 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1747,7 +2038,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -1765,17 +2056,18 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F5" t="s">
-        <v>133</v>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -1789,21 +2081,22 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F7" t="s">
-        <v>136</v>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -1817,7 +2110,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1825,13 +2118,172 @@
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="3">
+        <v>180</v>
+      </c>
+      <c r="D7" s="3">
+        <v>180</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1843,10 +2295,123 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1894,137 +2459,137 @@
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>1700</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>1600</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>1500</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>1400</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>1300</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>1200</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>1100</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>1000</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>900</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="6">
         <v>800</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="6">
         <v>700</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="6">
         <v>600</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="6">
         <v>500</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="6">
         <v>400</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="6">
         <v>300</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="6">
         <v>200</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="6">
         <v>100</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="6">
         <v>0</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
@@ -2032,7 +2597,7 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>104</v>
@@ -2040,474 +2605,11 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="3">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-24</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-20</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-16</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-12</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-8</v>
-      </c>
-      <c r="H6" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-6</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-3</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>-3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-6</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="3">
-        <v>60</v>
-      </c>
-      <c r="D7" s="3">
-        <v>80</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/데이터베이스_외부.xlsx
+++ b/데이터베이스_외부.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="198">
   <si>
     <t>계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -808,6 +808,22 @@
   </si>
   <si>
     <t>크기 100으로 변경, 이름_번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1206,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1826,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1840,7 +1856,7 @@
     <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -1848,7 +1864,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1862,7 +1878,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1874,7 +1890,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>183</v>
       </c>
@@ -1885,8 +1901,11 @@
       <c r="F6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>190</v>
       </c>
@@ -1900,8 +1919,11 @@
       <c r="G7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
     </row>
   </sheetData>
@@ -2019,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2033,7 +2055,7 @@
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -2041,7 +2063,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2055,7 +2077,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
@@ -2070,7 +2095,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
@@ -2084,7 +2109,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
@@ -2099,7 +2127,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2113,7 +2141,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>

--- a/데이터베이스_외부.xlsx
+++ b/데이터베이스_외부.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정성진\Desktop\school\maze of memorries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\MazeOfMemory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="197">
   <si>
     <t>계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +121,6 @@
   </si>
   <si>
     <t>멀티 플레이 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1223,7 +1219,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1240,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -1262,16 +1258,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -1279,13 +1275,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -1293,14 +1289,14 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -1308,60 +1304,60 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1391,46 +1387,46 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6">
         <v>24</v>
@@ -1452,16 +1448,16 @@
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="6">
         <v>-24</v>
@@ -1483,19 +1479,19 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="6">
         <v>-6</v>
@@ -1517,16 +1513,16 @@
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="6">
         <v>-6</v>
@@ -1548,16 +1544,16 @@
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="6">
         <v>-6</v>
@@ -1579,16 +1575,16 @@
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="6">
         <v>-6</v>
@@ -1610,19 +1606,19 @@
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="6">
         <v>6</v>
@@ -1644,16 +1640,16 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="6">
         <v>6</v>
@@ -1675,16 +1671,16 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="6">
         <v>6</v>
@@ -1706,16 +1702,16 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="6">
         <v>6</v>
@@ -1737,11 +1733,11 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1771,19 +1767,19 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -1791,11 +1787,11 @@
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -1803,11 +1799,11 @@
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -1815,11 +1811,11 @@
         <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -1827,11 +1823,11 @@
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1857,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -1869,13 +1865,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -1883,44 +1879,44 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3"/>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3"/>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" t="s">
         <v>191</v>
       </c>
-      <c r="G7" t="s">
-        <v>192</v>
-      </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1954,7 +1950,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -1962,24 +1958,24 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -1987,11 +1983,11 @@
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -1999,11 +1995,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -2011,10 +2007,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -2022,14 +2018,14 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2040,7 @@
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2060,99 +2056,100 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>136</v>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2179,15 +2176,15 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="3">
         <v>5</v>
@@ -2197,51 +2194,51 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="3">
         <v>180</v>
@@ -2251,10 +2248,10 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -2284,34 +2281,34 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2338,22 +2335,22 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -2362,10 +2359,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2391,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -2402,29 +2399,29 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2460,97 +2457,97 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="K4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="N4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="U4" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6">
         <v>1700</v>
@@ -2607,36 +2604,36 @@
         <v>0</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
